--- a/banco de dados forca.xlsx
+++ b/banco de dados forca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eeb5f15d11215630/Ironhack/Projeto_Forca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{71DCEE6C-062A-4108-940A-155A7E52772E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7427618C-F12F-47AF-ACB4-305B0E8970F3}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{71DCEE6C-062A-4108-940A-155A7E52772E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0E1FAA1-E5C2-4310-B33F-7A86DB27DCDD}"/>
   <bookViews>
-    <workbookView xWindow="8930" yWindow="1450" windowWidth="22330" windowHeight="15650" xr2:uid="{F84F93A7-2CFB-4B8B-8806-F93F79FF5D53}"/>
+    <workbookView xWindow="12030" yWindow="2790" windowWidth="22330" windowHeight="15650" xr2:uid="{F84F93A7-2CFB-4B8B-8806-F93F79FF5D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
   <si>
     <t>Melancia</t>
   </si>
@@ -202,18 +202,12 @@
     <t>Quadrado</t>
   </si>
   <si>
-    <t>Meia lua</t>
-  </si>
-  <si>
     <t>Losango</t>
   </si>
   <si>
     <t>Estrela</t>
   </si>
   <si>
-    <t>Círculo</t>
-  </si>
-  <si>
     <t>Formas Geométricas</t>
   </si>
   <si>
@@ -259,9 +253,6 @@
     <t>Chef</t>
   </si>
   <si>
-    <t>Arqueólogo</t>
-  </si>
-  <si>
     <t>Carteira</t>
   </si>
   <si>
@@ -305,6 +296,39 @@
   </si>
   <si>
     <t>Descricao</t>
+  </si>
+  <si>
+    <t>Dica1</t>
+  </si>
+  <si>
+    <t>Dica2</t>
+  </si>
+  <si>
+    <t>Dica3</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>vermelho</t>
+  </si>
+  <si>
+    <t>doce</t>
+  </si>
+  <si>
+    <t>tempero</t>
+  </si>
+  <si>
+    <t>amarelo</t>
+  </si>
+  <si>
+    <t>repete</t>
+  </si>
+  <si>
+    <t>Arqueologo</t>
+  </si>
+  <si>
+    <t>Circulo</t>
   </si>
 </sst>
 </file>
@@ -656,58 +680,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09D1D6E-EB23-49BE-9D49-F5BFEB5D65A7}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -715,7 +758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -723,23 +766,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -747,7 +796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -755,15 +804,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -771,7 +823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -779,7 +831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -787,7 +839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1080,7 +1132,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1088,7 +1140,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1096,7 +1148,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1104,7 +1156,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1112,103 +1164,103 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
         <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
         <v>65</v>
-      </c>
-      <c r="B68" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1216,159 +1268,151 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" t="s">
         <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" t="s">
         <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
